--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zainabrehman/Documents/Web-Developer/gomike/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E17916-DD68-C442-A735-4C3394792E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="27860" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -51,13 +52,88 @@
   </si>
   <si>
     <t>(SEO or Accessibility?)</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Alt Tags</t>
+  </si>
+  <si>
+    <t>There is no contrast between text and background</t>
+  </si>
+  <si>
+    <t>In sections where text is over an image, there is not sufficient contrast making the text hard to read and decipher especially if you are visually impaired</t>
+  </si>
+  <si>
+    <t>In these instances, a good practice to adopt would be to create contrast between the background image and font so that the text would be easier to read and decipher</t>
+  </si>
+  <si>
+    <t>Since the background is dark, it would be helpful to change the font color to something lighter like white. Using a white font instead of the dark blue will create contrast and make it easy to read</t>
+  </si>
+  <si>
+    <t>https://www.csun.edu/universal-design-center/web-accessibility-criteria-color-contrast</t>
+  </si>
+  <si>
+    <t>Paragraph and heading font size is way too small in certain areas</t>
+  </si>
+  <si>
+    <t>I noticed that paragraph text and footer text were way too small which made it difficult to read. This can pose an accessibilty issue for those who are visually impaired</t>
+  </si>
+  <si>
+    <t>While there is no official minimum font size for the web, it would be good practice to use larger size font especially on smaller screens so that there is no difficulty deciphering the information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using 14pt font as the smallest font size is recommended since it is easier to read vs. the 10pt and 12pt font that is being used presently </t>
+  </si>
+  <si>
+    <t>https://www.section508.gov/develop/fonts-typography/</t>
+  </si>
+  <si>
+    <t>In the form, the color of the text is hard to read</t>
+  </si>
+  <si>
+    <t>The light gray color in the form and the text itself is hard to read and can be improved</t>
+  </si>
+  <si>
+    <t>Ensure that the color is dark enough against the background so that it is easy to read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the color to dark blue or black and increase font weight so that it stands out </t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG/#contrast-minimum</t>
+  </si>
+  <si>
+    <t>Image Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images do not have alt text </t>
+  </si>
+  <si>
+    <t>Images do not have an alt text so when you hover over them nothing appears which is a problem for the visually impaired</t>
+  </si>
+  <si>
+    <t>Adding an alt text in your html that describes the image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add alt text in html that describe what the image is </t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/tutorials/images/tips/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,12 +144,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -92,6 +162,27 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,24 +215,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,6 +266,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,23 +471,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -376,7 +499,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -385,89 +508,298 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="4"/>
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="4"/>
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1437,6 +1769,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{DBA39729-ADC7-7140-A35A-227B31358D4C}"/>
+    <hyperlink ref="F5" r:id="rId2" location="contrast-minimum" xr:uid="{A57983BC-3A25-F34A-9E71-9EC99E8A967E}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{06CC035B-8ED2-1245-8E80-A1449A4DF38E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zainabrehman/Documents/Web-Developer/gomike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E17916-DD68-C442-A735-4C3394792E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B07BAE-2AB6-CD4C-ADEA-904CA82476C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="760" windowWidth="27860" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="27860" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Category</t>
   </si>
@@ -60,12 +60,6 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Alt Tags</t>
-  </si>
-  <si>
     <t>There is no contrast between text and background</t>
   </si>
   <si>
@@ -111,22 +105,154 @@
     <t>https://www.w3.org/TR/WCAG/#contrast-minimum</t>
   </si>
   <si>
-    <t>Image Size</t>
-  </si>
-  <si>
     <t xml:space="preserve">Images do not have alt text </t>
   </si>
   <si>
-    <t>Images do not have an alt text so when you hover over them nothing appears which is a problem for the visually impaired</t>
-  </si>
-  <si>
-    <t>Adding an alt text in your html that describes the image</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add alt text in html that describe what the image is </t>
   </si>
   <si>
     <t>https://www.w3.org/WAI/tutorials/images/tips/</t>
+  </si>
+  <si>
+    <t>Use text instead of images or give alt text to images to optimize SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are images of text being used instead of actual text which can take away from SEO </t>
+  </si>
+  <si>
+    <t>Image without alt text being used instead of text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap out the image for text </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>SEO keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random SEO keywords were added across the header and footer which is a confusing experience </t>
+  </si>
+  <si>
+    <t>Adding an appropriate alt text in your html that describes the image</t>
+  </si>
+  <si>
+    <t>SEO keywords should be incorporated into the website or as alt text where appropraite</t>
+  </si>
+  <si>
+    <t>Remove the random SEO keywords and try to incorporate into the website</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/fundamentals/seo-starter-guide</t>
+  </si>
+  <si>
+    <t>Images do not have an alt text  which is a problem for the visually impaired</t>
+  </si>
+  <si>
+    <t>Accessibility/SEO</t>
+  </si>
+  <si>
+    <t>Images using SEO keywords as alt text</t>
+  </si>
+  <si>
+    <t>Alt text is supposed to be utilized to describe images and make the website more accessible but alt text is using SEO keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Alt text to describe the image </t>
+  </si>
+  <si>
+    <t>Remove the SEO keywords from the alt text and replace it with text that describes the image</t>
+  </si>
+  <si>
+    <t>Link Text</t>
+  </si>
+  <si>
+    <t>Links do not have a discernable name</t>
+  </si>
+  <si>
+    <t>Link text that is discernible, unique, and focusable improves the navigation experience for screen reader users</t>
+  </si>
+  <si>
+    <t>https://dequeuniversity.com/rules/axe/4.8/link-name</t>
+  </si>
+  <si>
+    <t>Make the link text discernable by giving links a name or using ARIA lables</t>
+  </si>
+  <si>
+    <t>Div tags being used instead of semantic tags</t>
+  </si>
+  <si>
+    <t>Overuse of div tags</t>
+  </si>
+  <si>
+    <t>Replace some of the more generic div tags with semantic tags such as nav, article etc. to improve accessibility</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/accessibility/accessibility_semantic_elements.php</t>
+  </si>
+  <si>
+    <t>div and span tags don't have any meaning and should not be used if there is a better replacement such as form, nav, article etc.</t>
+  </si>
+  <si>
+    <t>Add defer attribute</t>
+  </si>
+  <si>
+    <t>Add title tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only have one h1 </t>
+  </si>
+  <si>
+    <t>Add defer tag to the &lt;script&gt; tags to help with performance and therefore help with accessibility by making the page load faster</t>
+  </si>
+  <si>
+    <t>Add a defer tag to help the website load faster and increase performance and accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a defer tag to help with website performance </t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/att_script_defer.asp</t>
+  </si>
+  <si>
+    <t>There is no title tag in both the html pages which can pose a problem for SEO</t>
+  </si>
+  <si>
+    <t>Instead of leaving the title blank, add in an appropriate title for the webpage</t>
+  </si>
+  <si>
+    <t>Add a title to each of the html pages</t>
+  </si>
+  <si>
+    <t>https://www.semrush.com/blog/title-tag/</t>
+  </si>
+  <si>
+    <t>There are multiple H1s across the code but for accessibility we only need to have one H1</t>
+  </si>
+  <si>
+    <t>Having one h1 is important because it is needed for screen readers. Label other headings as h2, h3, h4 etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rename the other headings as h2 or h3 </t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/tutorials/page-structure/headings/</t>
+  </si>
+  <si>
+    <t>Keyboard navigation</t>
+  </si>
+  <si>
+    <t>The keyboard navigation is faulty and does not allow for a seamless navigation across the webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having good keyboard navigation is essential in providing an accessible experience for those with disabilities, so it should always be built into the webpage </t>
+  </si>
+  <si>
+    <t>Add keyboard navigation</t>
+  </si>
+  <si>
+    <t>https://webaim.org/techniques/keyboard/</t>
   </si>
 </sst>
 </file>
@@ -219,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,17 +364,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +376,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +614,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
@@ -499,7 +629,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -540,19 +670,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
@@ -560,19 +690,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -580,223 +710,313 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:26" s="15" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="15" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F7" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="15" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1767,12 +1987,20 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{DBA39729-ADC7-7140-A35A-227B31358D4C}"/>
     <hyperlink ref="F5" r:id="rId2" location="contrast-minimum" xr:uid="{A57983BC-3A25-F34A-9E71-9EC99E8A967E}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{06CC035B-8ED2-1245-8E80-A1449A4DF38E}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{06CC035B-8ED2-1245-8E80-A1449A4DF38E}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B3773D98-CE7C-DB40-AC01-AE2D2F3150E6}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{D65D8696-69B5-D54F-9CF8-B1B1B554B54C}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{BD071ED0-2C04-B341-8873-0ECB0FBBF52A}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{1DE362B4-B7D2-894A-B960-2025D533B3A5}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{6CE8AB6C-2283-BC4C-9009-2A8A981985EB}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{424CE3A8-1D32-EC4A-AC28-4A651176169D}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{058C8E6D-8B00-C948-9633-E7CF7DBE5493}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{E6C88720-9B85-F344-ADED-97818C35FA50}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{B7B888F8-5D49-9F4E-BC82-DC325AED707D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
